--- a/data/output/FV2504_FV2410/ORDERS/17101.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17101.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="234">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="234">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -836,6 +836,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U87" totalsRowShown="0">
+  <autoFilter ref="A1:U87"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1125,7 +1155,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5273,5 +5306,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDERS/17101.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17101.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="321">
   <si>
     <t>#</t>
   </si>
@@ -2408,44 +2408,42 @@
       <c r="V19" s="5"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M20" s="5" t="s">
+      <c r="K20" s="2"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5" t="s">
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="V20" s="5"/>
+      <c r="V20" s="2"/>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="5" t="s">
@@ -2616,44 +2614,42 @@
       <c r="V23" s="5"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5" t="s">
+      <c r="C24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M24" s="5" t="s">
+      <c r="K24" s="2"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5" t="s">
+      <c r="N24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="V24" s="5"/>
+      <c r="V24" s="2"/>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="5" t="s">
@@ -2982,44 +2978,42 @@
       <c r="V30" s="5"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M31" s="5" t="s">
+      <c r="K31" s="2"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5" t="s">
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="V31" s="5"/>
+      <c r="V31" s="2"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="5" t="s">
@@ -3379,9 +3373,7 @@
         <v>197</v>
       </c>
       <c r="K38" s="5"/>
-      <c r="L38" s="7" t="s">
-        <v>218</v>
-      </c>
+      <c r="L38" s="4"/>
       <c r="M38" s="5" t="s">
         <v>29</v>
       </c>
@@ -3435,9 +3427,7 @@
         <v>197</v>
       </c>
       <c r="K39" s="5"/>
-      <c r="L39" s="7" t="s">
-        <v>218</v>
-      </c>
+      <c r="L39" s="4"/>
       <c r="M39" s="5" t="s">
         <v>29</v>
       </c>
@@ -3491,9 +3481,7 @@
         <v>197</v>
       </c>
       <c r="K40" s="5"/>
-      <c r="L40" s="7" t="s">
-        <v>218</v>
-      </c>
+      <c r="L40" s="4"/>
       <c r="M40" s="5" t="s">
         <v>29</v>
       </c>
@@ -3547,9 +3535,7 @@
         <v>197</v>
       </c>
       <c r="K41" s="5"/>
-      <c r="L41" s="7" t="s">
-        <v>218</v>
-      </c>
+      <c r="L41" s="4"/>
       <c r="M41" s="5" t="s">
         <v>29</v>
       </c>
@@ -3576,44 +3562,42 @@
       <c r="V41" s="5"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5" t="s">
+      <c r="C42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K42" s="5"/>
-      <c r="L42" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M42" s="5" t="s">
+      <c r="K42" s="2"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N42" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5" t="s">
+      <c r="N42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="V42" s="5"/>
+      <c r="V42" s="2"/>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="5" t="s">
@@ -3942,46 +3926,44 @@
       <c r="V48" s="5"/>
     </row>
     <row r="49" spans="1:22">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5" t="s">
+      <c r="C49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K49" s="5" t="s">
+      <c r="K49" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="L49" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M49" s="5" t="s">
+      <c r="L49" s="4"/>
+      <c r="M49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N49" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5" t="s">
+      <c r="N49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="V49" s="5" t="s">
+      <c r="V49" s="2" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4262,46 +4244,44 @@
       </c>
     </row>
     <row r="55" spans="1:22">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5" t="s">
+      <c r="C55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K55" s="5" t="s">
+      <c r="K55" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="L55" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M55" s="5" t="s">
+      <c r="L55" s="4"/>
+      <c r="M55" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N55" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5" t="s">
+      <c r="N55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="V55" s="5" t="s">
+      <c r="V55" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4993,9 +4973,7 @@
         <v>193</v>
       </c>
       <c r="K68" s="5"/>
-      <c r="L68" s="7" t="s">
-        <v>218</v>
-      </c>
+      <c r="L68" s="4"/>
       <c r="M68" s="5" t="s">
         <v>33</v>
       </c>
@@ -5022,44 +5000,42 @@
       <c r="V68" s="5"/>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5" t="s">
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="K69" s="5"/>
-      <c r="L69" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M69" s="5" t="s">
+      <c r="K69" s="2"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N69" s="5" t="s">
+      <c r="N69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5" t="s">
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="V69" s="5"/>
+      <c r="V69" s="2"/>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="5" t="s">
@@ -5226,46 +5202,44 @@
       <c r="V72" s="5"/>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5" t="s">
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K73" s="5" t="s">
+      <c r="K73" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="L73" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M73" s="5" t="s">
+      <c r="L73" s="4"/>
+      <c r="M73" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N73" s="5" t="s">
+      <c r="N73" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5" t="s">
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="V73" s="5" t="s">
+      <c r="V73" s="2" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5546,44 +5520,42 @@
       <c r="V78" s="5"/>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5" t="s">
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="K79" s="5"/>
-      <c r="L79" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M79" s="5" t="s">
+      <c r="K79" s="2"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N79" s="5" t="s">
+      <c r="N79" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5" t="s">
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="V79" s="5"/>
+      <c r="V79" s="2"/>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="5" t="s">

--- a/data/output/FV2504_FV2410/ORDERS/17101.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17101.xlsx
@@ -1087,7 +1087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1109,6 +1109,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1554,7 +1557,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1918,7 +1921,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2064,7 +2067,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2252,22 +2255,22 @@
       <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9" t="s">
+      <c r="K16" s="9"/>
+      <c r="L16" s="10" t="s">
         <v>219</v>
       </c>
       <c r="M16" s="5"/>
@@ -2285,31 +2288,31 @@
       <c r="A17" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8" t="s">
+      <c r="H17" s="9"/>
+      <c r="I17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9" t="s">
+      <c r="J17" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10" t="s">
         <v>219</v>
       </c>
       <c r="M17" s="5"/>
@@ -2327,31 +2330,31 @@
       <c r="A18" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8" t="s">
+      <c r="H18" s="9"/>
+      <c r="I18" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9" t="s">
+      <c r="J18" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10" t="s">
         <v>219</v>
       </c>
       <c r="M18" s="5"/>
@@ -2369,31 +2372,31 @@
       <c r="A19" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8" t="s">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8" t="s">
+      <c r="H19" s="9"/>
+      <c r="I19" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" s="10" t="s">
         <v>219</v>
       </c>
       <c r="M19" s="5"/>
@@ -2428,7 +2431,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -2634,7 +2637,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -2939,31 +2942,31 @@
       <c r="A30" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="8" t="s">
+      <c r="C30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8" t="s">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8" t="s">
+      <c r="H30" s="9"/>
+      <c r="I30" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="J30" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="9" t="s">
+      <c r="J30" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10" t="s">
         <v>219</v>
       </c>
       <c r="M30" s="5"/>
@@ -2998,7 +3001,7 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -3180,52 +3183,52 @@
       <c r="V34" s="5"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5" t="s">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K35" s="5"/>
+      <c r="K35" s="2"/>
       <c r="L35" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N35" s="5" t="s">
+      <c r="N35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O35" s="5" t="s">
+      <c r="O35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P35" s="5"/>
+      <c r="P35" s="2"/>
       <c r="Q35" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5" t="s">
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="V35" s="5"/>
+      <c r="V35" s="2"/>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="5" t="s">
@@ -3582,7 +3585,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -3887,31 +3890,31 @@
       <c r="A48" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="8" t="s">
+      <c r="C48" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8" t="s">
+      <c r="F48" s="9"/>
+      <c r="G48" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8" t="s">
+      <c r="H48" s="9"/>
+      <c r="I48" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="9" t="s">
+      <c r="J48" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10" t="s">
         <v>219</v>
       </c>
       <c r="M48" s="5"/>
@@ -3948,7 +3951,7 @@
         <v>210</v>
       </c>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4266,7 +4269,7 @@
         <v>212</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4678,21 +4681,21 @@
       <c r="V62" s="5"/>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
+      <c r="C63" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
       <c r="J63" s="6" t="s">
         <v>203</v>
       </c>
@@ -4702,18 +4705,18 @@
       <c r="L63" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="M63" s="5" t="s">
+      <c r="M63" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N63" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
+      <c r="N63" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
       <c r="U63" s="6" t="s">
         <v>200</v>
       </c>
@@ -5020,7 +5023,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5224,7 +5227,7 @@
         <v>215</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -5356,52 +5359,52 @@
       </c>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E76" s="5"/>
+      <c r="E76" s="2"/>
       <c r="F76" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5" t="s">
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="K76" s="5"/>
+      <c r="K76" s="2"/>
       <c r="L76" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="M76" s="5" t="s">
+      <c r="M76" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N76" s="5" t="s">
+      <c r="N76" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O76" s="5" t="s">
+      <c r="O76" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P76" s="5"/>
+      <c r="P76" s="2"/>
       <c r="Q76" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5" t="s">
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="V76" s="5"/>
+      <c r="V76" s="2"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="5" t="s">
@@ -5540,7 +5543,7 @@
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -5722,48 +5725,48 @@
       <c r="V82" s="5"/>
     </row>
     <row r="83" spans="1:22">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5" t="s">
+      <c r="C83" s="2"/>
+      <c r="D83" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E83" s="5"/>
+      <c r="E83" s="2"/>
       <c r="F83" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5" t="s">
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K83" s="5"/>
+      <c r="K83" s="2"/>
       <c r="L83" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="M83" s="5" t="s">
+      <c r="M83" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5" t="s">
+      <c r="N83" s="2"/>
+      <c r="O83" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P83" s="5"/>
+      <c r="P83" s="2"/>
       <c r="Q83" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5" t="s">
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="V83" s="5"/>
+      <c r="V83" s="2"/>
     </row>
     <row r="84" spans="1:22">
       <c r="A84" s="5" t="s">
@@ -5822,48 +5825,48 @@
       <c r="V84" s="5"/>
     </row>
     <row r="85" spans="1:22">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5" t="s">
+      <c r="C85" s="2"/>
+      <c r="D85" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E85" s="5"/>
+      <c r="E85" s="2"/>
       <c r="F85" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5" t="s">
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K85" s="5"/>
+      <c r="K85" s="2"/>
       <c r="L85" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="M85" s="5" t="s">
+      <c r="M85" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5" t="s">
+      <c r="N85" s="2"/>
+      <c r="O85" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P85" s="5"/>
+      <c r="P85" s="2"/>
       <c r="Q85" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5" t="s">
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="V85" s="5"/>
+      <c r="V85" s="2"/>
     </row>
     <row r="86" spans="1:22">
       <c r="A86" s="5" t="s">
